--- a/wksp_grnd/res/elementosPZ.xlsx
+++ b/wksp_grnd/res/elementosPZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_grnd\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668203B-AB78-494E-9BA3-9AEA53CF2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C928C8-89D2-4235-8315-AD4142A92631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" tabRatio="896" activeTab="5" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
+    <workbookView xWindow="5760" yWindow="372" windowWidth="17280" windowHeight="8880" tabRatio="896" activeTab="4" xr2:uid="{60CEC630-20DA-48BA-871C-1CBBDEAC003E}"/>
   </bookViews>
   <sheets>
     <sheet name="AP" sheetId="2" r:id="rId1"/>
@@ -1725,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3577180-5D60-413D-9E96-D273F378774D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -1769,8 +1769,8 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
+      <c r="B3" s="2">
+        <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>25</v>
@@ -1813,7 +1813,9 @@
       <c r="D6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="14.4">
       <c r="A7" s="1" t="s">
@@ -1895,13 +1897,14 @@
     </row>
     <row r="15" spans="1:5" ht="14.4">
       <c r="A15" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2">
-        <v>2</v>
+        <f>6.1+1.9</f>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>0</v>
@@ -1975,7 +1978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A06EA9-093B-4170-87D0-5A6C82C83177}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
